--- a/biology/Médecine/Muscle_sphincter_externe_de_l'anus/Muscle_sphincter_externe_de_l'anus.xlsx
+++ b/biology/Médecine/Muscle_sphincter_externe_de_l'anus/Muscle_sphincter_externe_de_l'anus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27anus</t>
+          <t>Muscle_sphincter_externe_de_l'anus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle sphincter externe de l'anus est un plan de fibres musculaires squelettiques, de forme elliptique et intimement adhérent au tissu cutané entourant le bord de l'anus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27anus</t>
+          <t>Muscle_sphincter_externe_de_l'anus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle sphincter externe de l'anus a une longueur d'environ 8 à 10 cm de son extrémité antérieure à son extrémité postérieure, et se situe à 2,5 cm de l'anus.
 Il se compose de deux couches :
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27anus</t>
+          <t>Muscle_sphincter_externe_de_l'anus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par le nerf rectal supérieur, branche du plexus sacré.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_sphincter_externe_de_l%27anus</t>
+          <t>Muscle_sphincter_externe_de_l'anus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Actions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres muscles, il est toujours dans un état de contraction tonique, et n'ayant pas de muscle antagoniste, il maintient le canal anal et l'anus fermés.
 Il peut être mis dans un état de plus grande contraction sous l'influence de la volonté, de manière à obstruer plus fermement l'ouverture anale, lors d'efforts expiratoires sans rapport avec la défécation.
